--- a/sapp/static/docs/rubicsMetrix.xlsx
+++ b/sapp/static/docs/rubicsMetrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ish\OneDrive - Carleton University\work details\Projects\Self assessment 4th year project\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/ishdeepsingh_cmail_carleton_ca/Documents/work details/Projects/Self assessment 4th year project/resources/testusersinfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{4E783028-DEB4-4F37-A2FA-8A9B9F9D8F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C4FB8358-4634-4349-B2A9-C321A9B87F4C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{4E783028-DEB4-4F37-A2FA-8A9B9F9D8F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0955B58-3815-4E68-9692-BFAAC7C092D0}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="4110" windowWidth="16200" windowHeight="9360" xr2:uid="{62D0A2BD-F8A8-4E03-A833-B7B0D04BAE14}"/>
+    <workbookView xWindow="6705" yWindow="1635" windowWidth="13050" windowHeight="8490" xr2:uid="{62D0A2BD-F8A8-4E03-A833-B7B0D04BAE14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,15 +137,15 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF1F4E79"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F4E79"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -157,12 +157,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,30 +198,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -244,10 +220,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBB89C7-9002-430C-B4E7-7A2634DB7DED}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -615,7 +591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -632,7 +608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="84.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -656,15 +632,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088245F683877F74AB6CACD371402890F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2659184bce0f0480416e8a0ed3d48724">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8bbcf527-d576-49cd-80a2-4da0aee9b968" xmlns:ns4="5e0f6137-a389-4f92-96a9-84a7c9c2d116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61c76ac55319c5d05796725cb90562e2" ns3:_="" ns4:_="">
     <xsd:import namespace="8bbcf527-d576-49cd-80a2-4da0aee9b968"/>
@@ -873,6 +840,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -880,14 +856,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC2B66D6-8A22-4BBD-B6F1-676DCB7320AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4B1B41D-6468-493B-A32B-98064167200A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -906,6 +874,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC2B66D6-8A22-4BBD-B6F1-676DCB7320AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62801EE6-81B1-4576-B84C-111E8BA99BAA}">
   <ds:schemaRefs>
